--- a/docs/STAFF-DATA/010.xlsx
+++ b/docs/STAFF-DATA/010.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF35097D-14DA-4D8F-8F58-076E9F1A0D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -227,12 +226,15 @@
   </si>
   <si>
     <t>https://orcid.org/0009-0009-7836-908X</t>
+  </si>
+  <si>
+    <t>VEC-010-04-171</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,26 +604,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="28.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -685,7 +687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -711,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -737,7 +739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -750,8 +752,11 @@
       <c r="I5" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -783,7 +788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -809,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -835,7 +840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -861,7 +866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -883,32 +888,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{4FA84351-14A5-4565-8F70-FA7D954BFB47}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{B5336B9A-2582-4551-ABDB-AFCA7339954F}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{8E6A2D38-82F4-46CC-9103-AF2581823E2A}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{1E34AABE-D70F-4A70-BC82-0845CFBC435E}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{D0AD7883-D17B-4929-9CB7-30CF1DD7D0E2}"/>
-    <hyperlink ref="F3" r:id="rId6" xr:uid="{463FA80E-71F8-41F3-A20C-40F48A5CE780}"/>
-    <hyperlink ref="I4" r:id="rId7" xr:uid="{78D65F94-C030-4DD8-86F6-4CDA58ED6D2A}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{022EC25D-6717-4268-85FC-22B449F967E3}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{6D94DE84-C0EA-4956-93F1-9CD58EF0909F}"/>
-    <hyperlink ref="F4" r:id="rId10" xr:uid="{BE6F2F32-A89C-4C36-A428-EFEBC4971E16}"/>
-    <hyperlink ref="I6" r:id="rId11" xr:uid="{ABAD8EE2-DC37-4151-BF5A-1145957D3A51}"/>
-    <hyperlink ref="D6" r:id="rId12" xr:uid="{5425AA3C-C495-4294-8820-8821E19F7EDF}"/>
-    <hyperlink ref="E6" r:id="rId13" xr:uid="{B90F40D5-FA9F-477F-B861-946ABA7A14A0}"/>
-    <hyperlink ref="I5" r:id="rId14" xr:uid="{D5638E64-2607-40B7-BD46-7DF96B8BBF11}"/>
-    <hyperlink ref="I7" r:id="rId15" xr:uid="{6C93D3E2-C4D8-4CB7-A6A0-875CC3929C94}"/>
-    <hyperlink ref="E7" r:id="rId16" xr:uid="{7A29090B-D2B8-417D-87CD-2EA5194E5F39}"/>
-    <hyperlink ref="F7" r:id="rId17" xr:uid="{6D37D4D5-2047-47C3-9DF2-0073E7D6137F}"/>
-    <hyperlink ref="I8" r:id="rId18" xr:uid="{C9BAF8B1-1702-4E2B-951D-CF277A92C070}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{F85CA11C-E8F2-449F-9FED-0F1E31F84D8C}"/>
-    <hyperlink ref="E8" r:id="rId20" xr:uid="{0C2ECF26-B7A4-455C-B455-0065E231B3CB}"/>
-    <hyperlink ref="F8" r:id="rId21" xr:uid="{2C28550E-CA6D-4807-996F-6C28BEECACFF}"/>
-    <hyperlink ref="I10" r:id="rId22" xr:uid="{AEC919BB-9E5E-4BDA-98B9-4880DC16FB45}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{59EA4B7B-D6FC-4CC8-A823-2C529E9E2BAE}"/>
-    <hyperlink ref="D10" r:id="rId24" xr:uid="{90B54544-4673-4037-953B-D8E16D365811}"/>
-    <hyperlink ref="E9" r:id="rId25" xr:uid="{2A95120A-5499-42B7-8BE7-3FD778650B8E}"/>
-    <hyperlink ref="F9" r:id="rId26" xr:uid="{9AEBF89C-3422-43EB-ADC3-B8D15A300E7A}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId6"/>
+    <hyperlink ref="I4" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="F4" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="D6" r:id="rId12"/>
+    <hyperlink ref="E6" r:id="rId13"/>
+    <hyperlink ref="I5" r:id="rId14"/>
+    <hyperlink ref="I7" r:id="rId15"/>
+    <hyperlink ref="E7" r:id="rId16"/>
+    <hyperlink ref="F7" r:id="rId17"/>
+    <hyperlink ref="I8" r:id="rId18"/>
+    <hyperlink ref="D8" r:id="rId19"/>
+    <hyperlink ref="E8" r:id="rId20"/>
+    <hyperlink ref="F8" r:id="rId21"/>
+    <hyperlink ref="I10" r:id="rId22"/>
+    <hyperlink ref="D9" r:id="rId23"/>
+    <hyperlink ref="D10" r:id="rId24"/>
+    <hyperlink ref="E9" r:id="rId25"/>
+    <hyperlink ref="F9" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/STAFF-DATA/010.xlsx
+++ b/docs/STAFF-DATA/010.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BB01E0-1BF8-46F6-BBBE-E3FAC925992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,12 +52,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>Mr. V. Baskaran</t>
-  </si>
-  <si>
-    <t>Assistant Professor &amp; Head of the Deaprtment</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-154.webp</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>VEC-010-04-154</t>
   </si>
   <si>
-    <t>Ms. S. Sugapriya</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>VEC-010-04-150</t>
   </si>
   <si>
-    <t>Mr. A. Balaji</t>
-  </si>
-  <si>
     <t>\/static/images/profile_photos/010/VEC-010-04-151.webp</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>VEC-010-04-151</t>
   </si>
   <si>
-    <t>Ms. R. Dhanalakshmi</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-171.webp</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>VEC-010-04-171</t>
   </si>
   <si>
-    <t>Ms. J. Latha</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-148.webp</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t>VEC-010-04-148</t>
   </si>
   <si>
-    <t>Dr. M. Vinothkumar</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-057.webp</t>
   </si>
   <si>
@@ -164,9 +149,6 @@
   </si>
   <si>
     <t>VEC-010-04-057</t>
-  </si>
-  <si>
-    <t>Mr. V. Anand</t>
   </si>
   <si>
     <t>/static/images/profile_photos/010/VEC-010-04-065.webp</t>
@@ -190,9 +172,6 @@
     <t>VEC-010-04-065</t>
   </si>
   <si>
-    <t>Mr. Kirubakaran Amalraj</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-081.webp</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>VEC-010-04-081</t>
   </si>
   <si>
-    <t>Ms. G. M. Archana</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-146.webp</t>
   </si>
   <si>
@@ -224,13 +200,42 @@
   </si>
   <si>
     <t>VEC-010-04-146</t>
+  </si>
+  <si>
+    <t>Ms. SUGAPRIYA S</t>
+  </si>
+  <si>
+    <t>Mr.  BASKARAN V</t>
+  </si>
+  <si>
+    <t>Mr. BALAJI A</t>
+  </si>
+  <si>
+    <t>Ms. DHANALAKSHMI R</t>
+  </si>
+  <si>
+    <t>Ms. LATHA J</t>
+  </si>
+  <si>
+    <t>Dr. VINOTHKUMAR M</t>
+  </si>
+  <si>
+    <t>Mr. ANAND V</t>
+  </si>
+  <si>
+    <t>Mr. KIRUBAKARAN AMALRAJ</t>
+  </si>
+  <si>
+    <t>Ms. ARCHANA G M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor &amp; Head </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,41 +301,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -341,10 +338,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -382,71 +379,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,7 +471,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -497,11 +494,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -510,13 +507,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -526,7 +523,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -535,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -552,10 +549,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -620,29 +617,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="51.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,254 +673,235 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
+    <row r="8" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="2" t="s">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="102.75">
-      <c r="A8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="J10" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/010.xlsx
+++ b/docs/STAFF-DATA/010.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BB01E0-1BF8-46F6-BBBE-E3FAC925992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,9 +87,6 @@
     <t>VEC-010-04-150</t>
   </si>
   <si>
-    <t>\/static/images/profile_photos/010/VEC-010-04-151.webp</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?user=UK0X27YAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -205,9 +201,6 @@
     <t>Ms. SUGAPRIYA S</t>
   </si>
   <si>
-    <t>Mr.  BASKARAN V</t>
-  </si>
-  <si>
     <t>Mr. BALAJI A</t>
   </si>
   <si>
@@ -230,12 +223,18 @@
   </si>
   <si>
     <t xml:space="preserve">Assistant Professor &amp; Head </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-151.webp</t>
+  </si>
+  <si>
+    <t>Mr. BASKARAN V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,14 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,10 +674,10 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -707,7 +706,7 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -733,175 +732,175 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" t="s">
         <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" t="s">
         <v>57</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/010.xlsx
+++ b/docs/STAFF-DATA/010.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C7845-5FBB-433B-8767-BA6A7E655B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -229,12 +230,39 @@
   </si>
   <si>
     <t>Mr. BASKARAN V</t>
+  </si>
+  <si>
+    <t>RHODAS DAISY D</t>
+  </si>
+  <si>
+    <t>GNANESHWARI R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. DEEPIKA A </t>
+  </si>
+  <si>
+    <t>VEC-010-04-604</t>
+  </si>
+  <si>
+    <t>VEC-010-04-605</t>
+  </si>
+  <si>
+    <t>VEC-010-04-606</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-604.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-605.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-606.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -903,6 +931,48 @@
         <v>53</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/STAFF-DATA/010.xlsx
+++ b/docs/STAFF-DATA/010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C7845-5FBB-433B-8767-BA6A7E655B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9DACB-6223-4729-B7C8-66DCFF41F475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,12 +232,6 @@
     <t>Mr. BASKARAN V</t>
   </si>
   <si>
-    <t>RHODAS DAISY D</t>
-  </si>
-  <si>
-    <t>GNANESHWARI R</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. DEEPIKA A </t>
   </si>
   <si>
@@ -257,6 +251,12 @@
   </si>
   <si>
     <t>/static/images/profile_photos/010/VEC-010-04-606.webp</t>
+  </si>
+  <si>
+    <t>Mrs. RHODAS DAISY D</t>
+  </si>
+  <si>
+    <t>Mrs. GNANESHWARI R</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,44 +933,44 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/010.xlsx
+++ b/docs/STAFF-DATA/010.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9DACB-6223-4729-B7C8-66DCFF41F475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +46,12 @@
     <t>unique_id</t>
   </si>
   <si>
+    <t>Mr. BASKARAN V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor &amp; Head </t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-154.webp</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>VEC-010-04-154</t>
   </si>
   <si>
+    <t>Ms. SUGAPRIYA S</t>
+  </si>
+  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -88,6 +91,12 @@
     <t>VEC-010-04-150</t>
   </si>
   <si>
+    <t>Mr. BALAJI A</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-151.webp</t>
+  </si>
+  <si>
     <t>https://scholar.google.com/citations?user=UK0X27YAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t>VEC-010-04-151</t>
   </si>
   <si>
+    <t>Mrs. DHANALAKSHMI R</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-171.webp</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t>VEC-010-04-171</t>
   </si>
   <si>
+    <t>Mrs. LATHA J</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-148.webp</t>
   </si>
   <si>
@@ -121,15 +136,15 @@
     <t>https://www.researchgate.net/profile/Latha-Jayapathy?ev=hdr_xprf</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/latha-jayapathy-11b6952ba/</t>
   </si>
   <si>
     <t>VEC-010-04-148</t>
   </si>
   <si>
+    <t>Dr. VINOTHKUMAR M</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/010/VEC-010-04-057.webp</t>
   </si>
   <si>
@@ -146,6 +161,9 @@
   </si>
   <si>
     <t>VEC-010-04-057</t>
+  </si>
+  <si>
+    <t>Mr. ANAND V</t>
   </si>
   <si>
     <t>/static/images/profile_photos/010/VEC-010-04-065.webp</t>
@@ -169,22 +187,7 @@
     <t>VEC-010-04-065</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/010/VEC-010-04-081.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/schhp?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Kirubakaran-Amalraj-2?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0009-0009-7836-908X</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kirubakaran-amalraj-2a655794?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>VEC-010-04-081</t>
+    <t>Mrs. ARCHANA G M</t>
   </si>
   <si>
     <t>/static/images/profile_photos/010/VEC-010-04-146.webp</t>
@@ -199,71 +202,51 @@
     <t>VEC-010-04-146</t>
   </si>
   <si>
-    <t>Ms. SUGAPRIYA S</t>
-  </si>
-  <si>
-    <t>Mr. BALAJI A</t>
-  </si>
-  <si>
-    <t>Ms. DHANALAKSHMI R</t>
-  </si>
-  <si>
-    <t>Ms. LATHA J</t>
-  </si>
-  <si>
-    <t>Dr. VINOTHKUMAR M</t>
-  </si>
-  <si>
-    <t>Mr. ANAND V</t>
-  </si>
-  <si>
-    <t>Mr. KIRUBAKARAN AMALRAJ</t>
-  </si>
-  <si>
-    <t>Ms. ARCHANA G M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Professor &amp; Head </t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/010/VEC-010-04-151.webp</t>
-  </si>
-  <si>
-    <t>Mr. BASKARAN V</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. DEEPIKA A </t>
   </si>
   <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-604.webp</t>
+  </si>
+  <si>
     <t>VEC-010-04-604</t>
   </si>
   <si>
+    <t>Mrs. RHODAS DAISY D</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-605.webp</t>
+  </si>
+  <si>
     <t>VEC-010-04-605</t>
   </si>
   <si>
+    <t>Mrs. GNANESHWARI R</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-04-606.webp</t>
+  </si>
+  <si>
     <t>VEC-010-04-606</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/010/VEC-010-04-604.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/010/VEC-010-04-605.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/010/VEC-010-04-606.webp</t>
-  </si>
-  <si>
-    <t>Mrs. RHODAS DAISY D</t>
-  </si>
-  <si>
-    <t>Mrs. GNANESHWARI R</t>
+    <t>Mrs. INDUMATHI S</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/010/VEC-010-05-631.webp</t>
+  </si>
+  <si>
+    <t>VEC-010-05-631</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +265,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -328,33 +317,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,10 +356,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -406,71 +397,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,7 +489,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -521,11 +512,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -534,13 +525,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -550,7 +541,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -559,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -568,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -576,10 +567,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -644,31 +635,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="51.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,277 +689,300 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="102.75">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
